--- a/trabalho_motores/resultados/ensaio_fluxo.xlsx
+++ b/trabalho_motores/resultados/ensaio_fluxo.xlsx
@@ -39,9 +39,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -69,8 +69,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,21 +123,59 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -106,52 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -161,37 +192,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +212,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -236,157 +386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,41 +420,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,138 +462,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,7 +637,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -973,10 +973,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13.8"/>
@@ -1029,31 +1029,31 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3">
-        <v>25</v>
+        <v>25.03</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>29.11</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>25.01</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>25.97</v>
       </c>
       <c r="G3">
-        <v>25</v>
+        <v>25.01</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>24.12</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1061,144 +1061,144 @@
         <v>25.03</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>29.11</v>
+        <v>54.12</v>
       </c>
       <c r="D4">
-        <v>25.01</v>
+        <v>25.02</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>25.97</v>
+        <v>53.92</v>
       </c>
       <c r="G4">
         <v>25.01</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>24.12</v>
+        <v>49.43</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5">
-        <v>25.03</v>
+        <v>25.02</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>54.12</v>
+        <v>74.55</v>
       </c>
       <c r="D5">
         <v>25.02</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>53.92</v>
+        <v>75.77</v>
       </c>
       <c r="G5">
-        <v>25.01</v>
+        <v>25.02</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5">
-        <v>49.43</v>
+        <v>72.81</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6">
-        <v>25.02</v>
+        <v>25.04</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>74.55</v>
+        <v>87.17</v>
       </c>
       <c r="D6">
-        <v>25.02</v>
+        <v>25.01</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>75.77</v>
+        <v>91.36</v>
       </c>
       <c r="G6">
         <v>25.02</v>
       </c>
       <c r="H6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I6">
-        <v>72.81</v>
+        <v>87.03</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7">
-        <v>25.04</v>
+        <v>25.03</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>87.17</v>
+        <v>94.37</v>
       </c>
       <c r="D7">
-        <v>25.01</v>
+        <v>25.02</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7">
-        <v>91.36</v>
+        <v>105.32</v>
       </c>
       <c r="G7">
         <v>25.02</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>87.03</v>
+        <v>92.68</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8">
-        <v>25.03</v>
+        <v>25.04</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>94.37</v>
+        <v>98.87</v>
       </c>
       <c r="D8">
-        <v>25.02</v>
+        <v>25.04</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>105.32</v>
+        <v>115.26</v>
       </c>
       <c r="G8">
         <v>25.02</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>92.68</v>
+        <v>94.28</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1206,143 +1206,114 @@
         <v>25.04</v>
       </c>
       <c r="B9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>98.87</v>
+        <v>101.04</v>
       </c>
       <c r="D9">
-        <v>25.04</v>
+        <v>25.03</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>115.26</v>
+        <v>119.16</v>
       </c>
       <c r="G9">
         <v>25.02</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I9">
-        <v>94.28</v>
+        <v>95.16</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10">
-        <v>25.04</v>
+        <v>25.02</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>101.04</v>
+        <v>102.35</v>
       </c>
       <c r="D10">
-        <v>25.03</v>
+        <v>25.02</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10">
-        <v>119.16</v>
+        <v>120.74</v>
       </c>
       <c r="G10">
         <v>25.02</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>95.16</v>
+        <v>95.86</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11">
-        <v>25.02</v>
+        <v>24.99</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>102.35</v>
+        <v>103.7</v>
       </c>
       <c r="D11">
-        <v>25.02</v>
+        <v>24.92</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F11">
-        <v>120.74</v>
+        <v>121.74</v>
       </c>
       <c r="G11">
         <v>25.02</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>95.86</v>
+        <v>96.33</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12">
-        <v>24.99</v>
+        <v>25.01</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>103.7</v>
+        <v>104.07</v>
       </c>
       <c r="D12">
-        <v>24.92</v>
+        <v>25.04</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>121.74</v>
+        <v>121.68</v>
       </c>
       <c r="G12">
-        <v>25.02</v>
+        <v>25.01</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12">
-        <v>96.33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13">
-        <v>25.01</v>
-      </c>
-      <c r="B13">
-        <v>10</v>
-      </c>
-      <c r="C13">
-        <v>104.07</v>
-      </c>
-      <c r="D13">
-        <v>25.04</v>
-      </c>
-      <c r="E13">
-        <v>10</v>
-      </c>
-      <c r="F13">
-        <v>121.68</v>
-      </c>
-      <c r="G13">
-        <v>25.01</v>
-      </c>
-      <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
         <v>96.74</v>
       </c>
     </row>
